--- a/workload.xlsx
+++ b/workload.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="39">
   <si>
     <t>Main Module</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -150,7 +150,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DONE,Delivered</t>
+    <t>comparison Chart for all modules</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21-04-20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21-04-19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adding option to choose from step 1 + step 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21-04-20</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -189,7 +205,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -247,13 +263,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -577,10 +596,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -606,7 +625,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -620,7 +639,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A3" s="3"/>
+      <c r="A3" s="4"/>
       <c r="B3" s="1" t="s">
         <v>25</v>
       </c>
@@ -632,7 +651,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -646,7 +665,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A5" s="3"/>
+      <c r="A5" s="4"/>
       <c r="B5" s="1" t="s">
         <v>27</v>
       </c>
@@ -658,7 +677,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A6" s="3"/>
+      <c r="A6" s="4"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -670,7 +689,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A7" s="3"/>
+      <c r="A7" s="4"/>
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
@@ -682,7 +701,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A8" s="3"/>
+      <c r="A8" s="4"/>
       <c r="B8" s="1" t="s">
         <v>9</v>
       </c>
@@ -694,75 +713,99 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A9" s="3"/>
-      <c r="B9" s="1" t="s">
+      <c r="A9" s="4"/>
+      <c r="B9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A10" s="4"/>
+      <c r="B10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A11" s="4"/>
+      <c r="B11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A13" s="6"/>
+      <c r="B13" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="2" t="s">
+      <c r="D13" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="A11" s="5"/>
-      <c r="B11" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A12" s="6" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A14" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A13" s="7"/>
-      <c r="B13" s="2" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A15" s="8"/>
+      <c r="B15" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>22</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A4:A11"/>
     <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
